--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\Desktop\JAVA class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\IdeaProjects\Part2SDETBatch14Java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F290249B-5FCD-4514-825E-AF4440A3DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18A3DF-50BD-404D-840A-6BF856171C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BF22036-7A53-42E9-BE2A-AF9B7780D15D}"/>
+    <workbookView xWindow="2630" yWindow="250" windowWidth="14230" windowHeight="8270" xr2:uid="{1BF22036-7A53-42E9-BE2A-AF9B7780D15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Afsar</t>
-  </si>
-  <si>
-    <t>Khan</t>
-  </si>
-  <si>
-    <t>Saira</t>
-  </si>
-  <si>
-    <t>Jawad</t>
-  </si>
-  <si>
-    <t>Camilo</t>
-  </si>
-  <si>
-    <t>Londono</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Levinskaia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -429,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9AD8-E142-4E82-BE5C-C0EF5F000FCF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,72 +426,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1360000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
